--- a/biology/Zoologie/Cynopotamus/Cynopotamus.xlsx
+++ b/biology/Zoologie/Cynopotamus/Cynopotamus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynopotamus est un genre de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (15 août 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (15 août 2023) :
 Cynopotamus amazonum (Günther, 1868)
 Cynopotamus argenteus (Valenciennes, 1836)
 Cynopotamus atratoensis (Eigenmann, 1907)
@@ -554,10 +568,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cynopotamus Valenciennes, 1850[2].
-Cynopotamus a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cynopotamus Valenciennes, 1850.
+Cynopotamus a pour synonymes :
 Anacrytus
 Cyrtocharax Fowler, 1907</t>
         </is>
@@ -587,9 +603,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Cynopotamus, dérivé du grec ancien κυνός, kynós, « de chien », et  ποταμός, potamós, « fleuve », fait référence à leurs dents acérées et bien visibles[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Cynopotamus, dérivé du grec ancien κυνός, kynós, « de chien », et  ποταμός, potamós, « fleuve », fait référence à leurs dents acérées et bien visibles.
 </t>
         </is>
       </c>
